--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H2">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I2">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J2">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N2">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O2">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P2">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q2">
-        <v>1522.405047312983</v>
+        <v>483.9316778236156</v>
       </c>
       <c r="R2">
-        <v>13701.64542581685</v>
+        <v>4355.385100412541</v>
       </c>
       <c r="S2">
-        <v>0.1944186627330204</v>
+        <v>0.07220622621391203</v>
       </c>
       <c r="T2">
-        <v>0.1944186627330204</v>
+        <v>0.07220622621391203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H3">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I3">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J3">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N3">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P3">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q3">
-        <v>24.17308157766055</v>
+        <v>8.491927520922223</v>
       </c>
       <c r="R3">
-        <v>217.557734198945</v>
+        <v>76.42734768830002</v>
       </c>
       <c r="S3">
-        <v>0.003087022210521343</v>
+        <v>0.001267059107032346</v>
       </c>
       <c r="T3">
-        <v>0.003087022210521343</v>
+        <v>0.001267059107032346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H4">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I4">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J4">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N4">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O4">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P4">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q4">
-        <v>54.62447288005478</v>
+        <v>46.20058225925334</v>
       </c>
       <c r="R4">
-        <v>491.620255920493</v>
+        <v>415.80524033328</v>
       </c>
       <c r="S4">
-        <v>0.006975815659952337</v>
+        <v>0.006893472460469922</v>
       </c>
       <c r="T4">
-        <v>0.006975815659952338</v>
+        <v>0.006893472460469923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>88.110958</v>
       </c>
       <c r="I5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N5">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O5">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P5">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q5">
-        <v>4329.811705076522</v>
+        <v>3917.857046735872</v>
       </c>
       <c r="R5">
-        <v>38968.30534568871</v>
+        <v>35260.71342062284</v>
       </c>
       <c r="S5">
-        <v>0.5529383938082122</v>
+        <v>0.5845735775401942</v>
       </c>
       <c r="T5">
-        <v>0.5529383938082122</v>
+        <v>0.5845735775401943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>88.110958</v>
       </c>
       <c r="I6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N6">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P6">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q6">
-        <v>68.7497008417411</v>
+        <v>68.74970084174112</v>
       </c>
       <c r="R6">
         <v>618.74730757567</v>
       </c>
       <c r="S6">
-        <v>0.00877967721174969</v>
+        <v>0.01025796962381719</v>
       </c>
       <c r="T6">
-        <v>0.008779677211749692</v>
+        <v>0.01025796962381719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>88.110958</v>
       </c>
       <c r="I7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N7">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O7">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P7">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q7">
-        <v>155.3552929144176</v>
+        <v>374.0347761108747</v>
       </c>
       <c r="R7">
-        <v>1398.197636229758</v>
+        <v>3366.312984997872</v>
       </c>
       <c r="S7">
-        <v>0.01983964014716529</v>
+        <v>0.0558087864328145</v>
       </c>
       <c r="T7">
-        <v>0.01983964014716529</v>
+        <v>0.05580878643281451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H8">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>147.4213356666667</v>
+        <v>133.3951123333333</v>
       </c>
       <c r="N8">
-        <v>442.264007</v>
+        <v>400.185337</v>
       </c>
       <c r="O8">
-        <v>0.9507885170992249</v>
+        <v>0.8984588679103155</v>
       </c>
       <c r="P8">
-        <v>0.950788517099225</v>
+        <v>0.8984588679103156</v>
       </c>
       <c r="Q8">
-        <v>1592.980210758022</v>
+        <v>1619.751663318773</v>
       </c>
       <c r="R8">
-        <v>14336.8218968222</v>
+        <v>14577.76496986896</v>
       </c>
       <c r="S8">
-        <v>0.2034314605579924</v>
+        <v>0.2416790641562093</v>
       </c>
       <c r="T8">
-        <v>0.2034314605579924</v>
+        <v>0.2416790641562093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H9">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.340788333333333</v>
+        <v>2.340788333333334</v>
       </c>
       <c r="N9">
-        <v>7.022365</v>
+        <v>7.022365000000001</v>
       </c>
       <c r="O9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="P9">
-        <v>0.01509682881537203</v>
+        <v>0.01576596023045448</v>
       </c>
       <c r="Q9">
-        <v>25.29368951726555</v>
+        <v>28.42304886643445</v>
       </c>
       <c r="R9">
-        <v>227.64320565539</v>
+        <v>255.80743979791</v>
       </c>
       <c r="S9">
-        <v>0.003230129393100999</v>
+        <v>0.004240931499604941</v>
       </c>
       <c r="T9">
-        <v>0.003230129393100999</v>
+        <v>0.004240931499604941</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H10">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.289533666666667</v>
+        <v>12.735128</v>
       </c>
       <c r="N10">
-        <v>15.868601</v>
+        <v>38.205384</v>
       </c>
       <c r="O10">
-        <v>0.03411465408540306</v>
+        <v>0.08577517185923002</v>
       </c>
       <c r="P10">
-        <v>0.03411465408540307</v>
+        <v>0.08577517185923003</v>
       </c>
       <c r="Q10">
-        <v>57.15673662183178</v>
+        <v>154.6364360714507</v>
       </c>
       <c r="R10">
-        <v>514.410629596486</v>
+        <v>1391.727924643056</v>
       </c>
       <c r="S10">
-        <v>0.007299198278285437</v>
+        <v>0.02307291296594561</v>
       </c>
       <c r="T10">
-        <v>0.007299198278285437</v>
+        <v>0.02307291296594561</v>
       </c>
     </row>
   </sheetData>
